--- a/biology/Botanique/Hans_Rogler/Hans_Rogler.xlsx
+++ b/biology/Botanique/Hans_Rogler/Hans_Rogler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hans Rogler est un agriculteur allemand considéré comme étant le premier à avoir cultivé des pommes de terre dans ce pays en 1647, dans le village de Pilgramsreuth près de la ville de Rehau en Bavière.
 Rogler avait obtenu les tubercules à Rossbach (actuellement Hranice en République tchèque) auprès de parents, qui les avaient eux-mêmes reçus de soldats néerlandais.
-Un monument commémoratif dédié à Hans Rogler a été érigé dans le cimetière de Pilgramsreuth en décembre 1990. Cette sculpture en bronze sur un socle de pierre représente un paysan debout tenant ses outils à la main et une paysanne agenouillée portant un panier, tous deux en costumes du XVIIe siècle[1].
+Un monument commémoratif dédié à Hans Rogler a été érigé dans le cimetière de Pilgramsreuth en décembre 1990. Cette sculpture en bronze sur un socle de pierre représente un paysan debout tenant ses outils à la main et une paysanne agenouillée portant un panier, tous deux en costumes du XVIIe siècle.
 </t>
         </is>
       </c>
